--- a/INFO_636/Assignment_4B/Supporting Docs/4BVannoniEstimations.xlsx
+++ b/INFO_636/Assignment_4B/Supporting Docs/4BVannoniEstimations.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="146">
   <si>
     <t>Program Number I</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Main</t>
   </si>
   <si>
-    <t>Assignment 4</t>
-  </si>
-  <si>
     <t>Size (LOC)</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>Actual LOC</t>
   </si>
   <si>
-    <t>VS</t>
-  </si>
-  <si>
     <t>NEW OBJECTS:</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t xml:space="preserve">  TOTAL NEW OBJECTS (NO)      =&gt;    =&gt;    =&gt;    =&gt;    =&gt;    =&gt;    =&gt; </t>
   </si>
   <si>
@@ -387,18 +378,6 @@
     <t>Greg Vannoni</t>
   </si>
   <si>
-    <t>Options Array</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Dialog Box</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>Not doing this column in program 3B</t>
   </si>
   <si>
@@ -507,10 +486,25 @@
     <t>Assignment 3B</t>
   </si>
   <si>
-    <t>Add input for displayWarning</t>
-  </si>
-  <si>
-    <t>To be continued…</t>
+    <t>Assignment 4B</t>
+  </si>
+  <si>
+    <t>Check for valid chars in getFileLocation()</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Add warnings in Main.java for each mode</t>
+  </si>
+  <si>
+    <t>Main.java getFileLocation</t>
+  </si>
+  <si>
+    <t>5*</t>
+  </si>
+  <si>
+    <t>4B</t>
   </si>
 </sst>
 </file>
@@ -518,11 +512,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -619,26 +613,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,12 +647,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,7 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -736,23 +711,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -837,9 +812,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -849,7 +821,7 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -857,10 +829,10 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -912,9 +884,10 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -933,25 +906,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1363,14 +1342,15 @@
   <dimension ref="A1:AU57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="26"/>
+    <col min="1" max="1" width="15.85546875" style="26" customWidth="1"/>
+    <col min="2" max="6" width="9.140625" style="26"/>
     <col min="7" max="7" width="12.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="81" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="80" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="47" width="9.140625" style="25"/>
     <col min="48" max="16384" width="9.140625" style="26"/>
@@ -1378,7 +1358,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18.75">
       <c r="A1" s="89" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -1391,54 +1371,54 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="31">
-        <v>40212</v>
+        <v>40220</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>49</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="70" t="s">
-        <v>104</v>
+        <v>49</v>
+      </c>
+      <c r="I3" s="69" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="74"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:22" ht="12.75" customHeight="1">
       <c r="A5" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90"/>
@@ -1446,10 +1426,10 @@
       <c r="E5" s="91"/>
       <c r="F5" s="91"/>
       <c r="G5" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="33" t="s">
         <v>52</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>53</v>
       </c>
       <c r="J5" s="34"/>
       <c r="K5" s="35"/>
@@ -1459,7 +1439,7 @@
     </row>
     <row r="6" spans="1:22" ht="12.75" customHeight="1">
       <c r="A6" s="30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -1467,11 +1447,11 @@
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="36">
-        <v>242</v>
-      </c>
-      <c r="H6" s="83"/>
+        <v>245</v>
+      </c>
+      <c r="H6" s="82"/>
       <c r="I6" s="36">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J6" s="37"/>
       <c r="K6" s="35"/>
@@ -1481,7 +1461,7 @@
     </row>
     <row r="7" spans="1:22" ht="12.75" customHeight="1">
       <c r="A7" s="30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -1489,11 +1469,11 @@
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="38">
-        <v>1</v>
-      </c>
-      <c r="H7" s="83"/>
+        <v>6</v>
+      </c>
+      <c r="H7" s="82"/>
       <c r="I7" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" s="37"/>
       <c r="K7" s="35"/>
@@ -1503,7 +1483,7 @@
     </row>
     <row r="8" spans="1:22" ht="12.75" customHeight="1">
       <c r="A8" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -1511,11 +1491,11 @@
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="38">
-        <v>1</v>
-      </c>
-      <c r="H8" s="83"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="82"/>
       <c r="I8" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="37"/>
       <c r="K8" s="35"/>
@@ -1524,15 +1504,15 @@
       <c r="N8" s="35"/>
     </row>
     <row r="9" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="78"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="77"/>
       <c r="J9" s="37"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
@@ -1541,7 +1521,7 @@
     </row>
     <row r="10" spans="1:22" ht="12.75" customHeight="1">
       <c r="A10" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -1567,70 +1547,83 @@
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1">
       <c r="A11" s="87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="87"/>
       <c r="C11" s="43"/>
       <c r="D11" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="F11" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="G11" s="44" t="s">
         <v>58</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>59</v>
       </c>
       <c r="H11" s="43"/>
       <c r="I11" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="45"/>
       <c r="K11" s="45"/>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="46" t="s">
-        <v>146</v>
+    <row r="12" spans="1:22" ht="63.75">
+      <c r="A12" s="92" t="s">
+        <v>140</v>
       </c>
       <c r="B12" s="46"/>
       <c r="C12" s="41"/>
-      <c r="D12" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="69">
+      <c r="D12" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="68">
         <v>1</v>
       </c>
-      <c r="F12" s="69" t="s">
-        <v>107</v>
+      <c r="F12" s="68" t="s">
+        <v>64</v>
       </c>
       <c r="G12" s="46">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="47">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="46"/>
+      <c r="A13" s="46" t="s">
+        <v>142</v>
+      </c>
       <c r="B13" s="32"/>
       <c r="C13" s="41"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="32"/>
+      <c r="D13" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="69">
+        <v>1</v>
+      </c>
+      <c r="F13" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="32">
+        <v>18</v>
+      </c>
       <c r="H13" s="45"/>
-      <c r="I13" s="48"/>
+      <c r="I13" s="48">
+        <f>8*3</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="46"/>
       <c r="B14" s="32"/>
       <c r="C14" s="41"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="49"/>
       <c r="H14" s="45"/>
       <c r="I14" s="48"/>
@@ -1647,7 +1640,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -1656,12 +1649,12 @@
       <c r="F16" s="55"/>
       <c r="G16" s="30">
         <f>SUM(G12:G15)</f>
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="30">
         <f>SUM(I12:I15)</f>
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
@@ -1679,27 +1672,27 @@
     </row>
     <row r="17" spans="1:47" s="53" customFormat="1" ht="24">
       <c r="A17" s="87" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17" s="88"/>
       <c r="C17" s="50"/>
       <c r="D17" s="43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>65</v>
-      </c>
       <c r="I17" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" s="51"/>
       <c r="K17" s="51"/>
@@ -1742,59 +1735,47 @@
     </row>
     <row r="18" spans="1:47">
       <c r="A18" s="46" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="69">
+      <c r="D18" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="68">
         <v>1</v>
       </c>
-      <c r="F18" s="69" t="s">
-        <v>61</v>
+      <c r="F18" s="68" t="s">
+        <v>141</v>
       </c>
       <c r="G18" s="47">
-        <v>1</v>
-      </c>
-      <c r="H18" s="55"/>
+        <v>5</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>144</v>
+      </c>
       <c r="I18" s="47">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:47">
-      <c r="A19" s="32" t="s">
-        <v>108</v>
-      </c>
+      <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="70">
-        <v>1</v>
-      </c>
-      <c r="F19" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="48">
-        <v>1</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="48">
-        <v>1</v>
-      </c>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="1:47">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="48"/>
       <c r="H20" s="55"/>
       <c r="I20" s="48"/>
@@ -1803,9 +1784,9 @@
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
       <c r="G21" s="48"/>
       <c r="H21" s="55"/>
       <c r="I21" s="48"/>
@@ -1814,9 +1795,9 @@
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="48"/>
       <c r="H22" s="55"/>
       <c r="I22" s="48"/>
@@ -1825,16 +1806,16 @@
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="48"/>
       <c r="H23" s="55"/>
       <c r="I23" s="48"/>
     </row>
     <row r="24" spans="1:47" ht="12.75" customHeight="1">
       <c r="A24" s="30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -1843,12 +1824,12 @@
       <c r="F24" s="55"/>
       <c r="G24" s="30">
         <f>SUM(G18:G23)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H24" s="55"/>
       <c r="I24" s="30">
         <f>SUM(I18:I23)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24" s="41"/>
       <c r="K24" s="41"/>
@@ -1865,15 +1846,15 @@
       <c r="V24" s="54"/>
     </row>
     <row r="25" spans="1:47">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="75"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="74"/>
       <c r="J25" s="41"/>
       <c r="K25" s="41"/>
       <c r="L25" s="41"/>
@@ -1890,25 +1871,25 @@
     </row>
     <row r="26" spans="1:47" ht="12.75" customHeight="1">
       <c r="A26" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="F26" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="G26" s="44" t="s">
         <v>58</v>
-      </c>
-      <c r="G26" s="44" t="s">
-        <v>59</v>
       </c>
       <c r="H26" s="43"/>
       <c r="I26" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J26" s="41"/>
       <c r="K26" s="41"/>
@@ -1925,26 +1906,26 @@
       <c r="V26" s="45"/>
     </row>
     <row r="27" spans="1:47">
-      <c r="A27" s="32" t="s">
-        <v>108</v>
+      <c r="A27" s="46" t="s">
+        <v>143</v>
       </c>
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
-      <c r="D27" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="69">
+      <c r="D27" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="68">
         <v>1</v>
       </c>
-      <c r="F27" s="69" t="s">
-        <v>61</v>
+      <c r="F27" s="68" t="s">
+        <v>141</v>
       </c>
       <c r="G27" s="47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H27" s="55"/>
       <c r="I27" s="47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" s="41"/>
     </row>
@@ -1952,9 +1933,9 @@
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="48"/>
       <c r="H28" s="55"/>
       <c r="I28" s="48"/>
@@ -1986,7 +1967,7 @@
     </row>
     <row r="31" spans="1:47" ht="12.75" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -1995,12 +1976,12 @@
       <c r="F31" s="30"/>
       <c r="G31" s="30">
         <f>SUM(G27:G30)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H31" s="55"/>
       <c r="I31" s="30">
         <f>SUM(I27:I30)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" s="41"/>
       <c r="K31" s="41"/>
@@ -2017,124 +1998,124 @@
       <c r="V31" s="54"/>
     </row>
     <row r="32" spans="1:47" ht="12.75" customHeight="1">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="H32" s="79"/>
-      <c r="I32" s="80" t="s">
-        <v>89</v>
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="78"/>
+      <c r="I32" s="79" t="s">
+        <v>86</v>
       </c>
       <c r="J32" s="45"/>
     </row>
     <row r="33" spans="1:22" ht="12.75" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
-      <c r="G33" s="56">
+      <c r="G33" s="100">
         <f>G16+G24+G8</f>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="H33" s="55"/>
-      <c r="I33" s="92">
+      <c r="I33" s="93">
         <f>G16+G24+G8</f>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J33" s="45"/>
     </row>
     <row r="34" spans="1:22" ht="12.75" customHeight="1">
       <c r="A34" s="30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
-      <c r="D34" s="57" t="s">
-        <v>73</v>
+      <c r="D34" s="56" t="s">
+        <v>70</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
-      <c r="G34" s="64">
+      <c r="G34" s="63">
         <f>'Size Estimate Regression'!beta1</f>
-        <v>0.71511450381679387</v>
-      </c>
-      <c r="H34" s="85"/>
-      <c r="I34" s="93" t="e">
+        <v>0.73341024457775705</v>
+      </c>
+      <c r="H34" s="84"/>
+      <c r="I34" s="94">
         <f>'Time Estimate Regression'!beta1</f>
-        <v>#DIV/0!</v>
+        <v>3.892105263157895</v>
       </c>
       <c r="J34" s="45"/>
     </row>
     <row r="35" spans="1:22" ht="12.75" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="57" t="s">
-        <v>75</v>
+      <c r="D35" s="56" t="s">
+        <v>72</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
-      <c r="G35" s="64">
+      <c r="G35" s="63">
         <f>'Size Estimate Regression'!beta0</f>
-        <v>23.609160305343515</v>
-      </c>
-      <c r="H35" s="85"/>
-      <c r="I35" s="93" t="e">
+        <v>19.660821412090471</v>
+      </c>
+      <c r="H35" s="84"/>
+      <c r="I35" s="94">
         <f>'Time Estimate Regression'!beta0</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="J35" s="54"/>
     </row>
     <row r="36" spans="1:22" ht="12.75" customHeight="1">
       <c r="A36" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
-      <c r="G36" s="65">
+      <c r="G36" s="64">
         <f>G35+G34*G33</f>
-        <v>27.184732824427485</v>
-      </c>
-      <c r="H36" s="85"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="66" t="s">
-        <v>91</v>
+        <v>52.664282418089535</v>
+      </c>
+      <c r="H36" s="84"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="65" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="12.75" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
-      <c r="G37" s="59">
+      <c r="G37" s="58">
         <f>G33+G6-G7-G8+G31</f>
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="H37" s="55"/>
-      <c r="I37" s="94"/>
+      <c r="I37" s="95"/>
       <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:22" ht="12.75" customHeight="1">
       <c r="A38" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -2143,101 +2124,101 @@
       <c r="F38" s="30"/>
       <c r="G38" s="48">
         <f>SUM(G18:G19)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H38" s="55"/>
-      <c r="I38" s="94"/>
+      <c r="I38" s="95"/>
       <c r="J38" s="54"/>
     </row>
     <row r="39" spans="1:22" ht="12.75" customHeight="1">
       <c r="A39" s="30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
-      <c r="G39" s="58"/>
+      <c r="G39" s="57"/>
       <c r="H39" s="55"/>
-      <c r="I39" s="95" t="e">
+      <c r="I39" s="99">
         <f>'Time Estimate Regression'!B24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J39" s="66" t="s">
-        <v>85</v>
+        <v>175.14473684210526</v>
+      </c>
+      <c r="J39" s="65" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="12.75" customHeight="1">
       <c r="A40" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
-      <c r="G40" s="60">
+      <c r="G40" s="59">
         <f>'Size Estimate Regression'!range</f>
-        <v>57.993363183289432</v>
+        <v>34.430913611549435</v>
       </c>
       <c r="H40" s="55"/>
-      <c r="I40" s="96" t="e">
+      <c r="I40" s="96">
         <f>'Time Estimate Regression'!range</f>
-        <v>#DIV/0!</v>
+        <v>555.58988458542001</v>
       </c>
       <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:22" ht="12.75" customHeight="1">
       <c r="A41" s="30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
-      <c r="G41" s="61">
+      <c r="G41" s="60">
         <f>'Size Estimate Regression'!upi</f>
-        <v>85.178096007716917</v>
+        <v>87.09519602963897</v>
       </c>
       <c r="H41" s="55"/>
-      <c r="I41" s="96" t="e">
+      <c r="I41" s="96">
         <f>'Time Estimate Regression'!upi</f>
-        <v>#DIV/0!</v>
+        <v>730.73462142752533</v>
       </c>
       <c r="J41" s="54"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1">
       <c r="A42" s="30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
-      <c r="G42" s="61">
+      <c r="G42" s="60">
         <f>'Size Estimate Regression'!lpi</f>
-        <v>-30.808630358861947</v>
+        <v>18.233368806540099</v>
       </c>
       <c r="H42" s="55"/>
-      <c r="I42" s="96" t="e">
+      <c r="I42" s="96">
         <f>'Time Estimate Regression'!lpi</f>
-        <v>#DIV/0!</v>
+        <v>-380.44514774331475</v>
       </c>
       <c r="J42" s="54"/>
     </row>
     <row r="43" spans="1:22" ht="12.75" customHeight="1">
       <c r="A43" s="41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
       <c r="D43" s="41"/>
       <c r="E43" s="41"/>
       <c r="F43" s="41"/>
-      <c r="G43" s="62">
+      <c r="G43" s="61">
         <f>'Size Estimate Regression'!pi_pct</f>
         <v>0.7</v>
       </c>
@@ -2246,8 +2227,8 @@
         <f>'Time Estimate Regression'!pi_pct</f>
         <v>0.7</v>
       </c>
-      <c r="J43" s="66" t="s">
-        <v>86</v>
+      <c r="J43" s="65" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -2259,19 +2240,19 @@
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
       <c r="I44" s="29"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="63"/>
-      <c r="T44" s="63"/>
-      <c r="U44" s="63"/>
-      <c r="V44" s="63"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="62"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="62"/>
+      <c r="V44" s="62"/>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="29"/>
@@ -2282,19 +2263,19 @@
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
       <c r="I45" s="29"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="63"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="63"/>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="63"/>
-      <c r="R45" s="63"/>
-      <c r="S45" s="63"/>
-      <c r="T45" s="63"/>
-      <c r="U45" s="63"/>
-      <c r="V45" s="63"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
+      <c r="S45" s="62"/>
+      <c r="T45" s="62"/>
+      <c r="U45" s="62"/>
+      <c r="V45" s="62"/>
     </row>
     <row r="46" spans="1:22" ht="19.5">
       <c r="A46" s="29"/>
@@ -2304,22 +2285,22 @@
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
-      <c r="I46" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="63"/>
-      <c r="Q46" s="63"/>
-      <c r="R46" s="63"/>
-      <c r="S46" s="63"/>
-      <c r="T46" s="63"/>
-      <c r="U46" s="63"/>
-      <c r="V46" s="63"/>
+      <c r="I46" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="62"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="62"/>
+      <c r="S46" s="62"/>
+      <c r="T46" s="62"/>
+      <c r="U46" s="62"/>
+      <c r="V46" s="62"/>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="29"/>
@@ -2330,19 +2311,19 @@
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
       <c r="I47" s="29"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="63"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="63"/>
-      <c r="O47" s="63"/>
-      <c r="P47" s="63"/>
-      <c r="Q47" s="63"/>
-      <c r="R47" s="63"/>
-      <c r="S47" s="63"/>
-      <c r="T47" s="63"/>
-      <c r="U47" s="63"/>
-      <c r="V47" s="63"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="62"/>
+      <c r="S47" s="62"/>
+      <c r="T47" s="62"/>
+      <c r="U47" s="62"/>
+      <c r="V47" s="62"/>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="29"/>
@@ -2353,11 +2334,11 @@
       <c r="F48" s="29"/>
       <c r="G48" s="29"/>
       <c r="I48" s="29"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="63"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="29"/>
@@ -2368,11 +2349,11 @@
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
       <c r="I49" s="29"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="29"/>
@@ -2383,11 +2364,11 @@
       <c r="F50" s="29"/>
       <c r="G50" s="29"/>
       <c r="I50" s="29"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="63"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="29"/>
@@ -2398,11 +2379,11 @@
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
       <c r="I51" s="29"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="63"/>
-      <c r="M51" s="63"/>
-      <c r="N51" s="63"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="29"/>
@@ -2413,11 +2394,11 @@
       <c r="F52" s="29"/>
       <c r="G52" s="29"/>
       <c r="I52" s="29"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="63"/>
-      <c r="M52" s="63"/>
-      <c r="N52" s="63"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="29"/>
@@ -2428,11 +2409,11 @@
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
       <c r="I53" s="29"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="63"/>
-      <c r="M53" s="63"/>
-      <c r="N53" s="63"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="29"/>
@@ -2443,11 +2424,11 @@
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
       <c r="I54" s="29"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="63"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="63"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="29"/>
@@ -2458,11 +2439,11 @@
       <c r="F55" s="29"/>
       <c r="G55" s="29"/>
       <c r="I55" s="29"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="63"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="29"/>
@@ -2473,11 +2454,11 @@
       <c r="F56" s="29"/>
       <c r="G56" s="29"/>
       <c r="I56" s="29"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="63"/>
-      <c r="M56" s="63"/>
-      <c r="N56" s="63"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="29"/>
@@ -2488,11 +2469,11 @@
       <c r="F57" s="29"/>
       <c r="G57" s="29"/>
       <c r="I57" s="29"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="63"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2530,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2550,23 +2531,23 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>37</v>
-      </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>33</v>
       </c>
       <c r="B2">
@@ -2578,15 +2559,15 @@
       </c>
       <c r="D2" s="22">
         <f>(C2-$G$6)^2</f>
-        <v>3.225944075347368</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>122</v>
+        <v>3.1678147016317255</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="67" t="s">
-        <v>111</v>
+      <c r="A3" s="66" t="s">
+        <v>104</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2597,12 +2578,12 @@
       </c>
       <c r="D3" s="22">
         <f>(C3-$G$6)^2</f>
-        <v>2.7877129905124849</v>
+        <v>2.8422598891355362</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2613,13 +2594,13 @@
       </c>
       <c r="D4" s="22">
         <f t="shared" ref="D4:D87" si="1">(C4-$G$6)^2</f>
-        <v>0.95354715180665583</v>
+        <v>0.98555879596196816</v>
       </c>
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2630,13 +2611,13 @@
       </c>
       <c r="D5" s="22">
         <f t="shared" si="1"/>
-        <v>0.95354715180665583</v>
+        <v>0.98555879596196816</v>
       </c>
       <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="26" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -2647,21 +2628,21 @@
       </c>
       <c r="D6" s="22">
         <f t="shared" si="1"/>
-        <v>0.3260778664537502</v>
+        <v>0.3449072318012264</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="23">
-        <f>AVERAGE(C2:C87)</f>
-        <v>1.6696445701143956</v>
+        <f>AVERAGE(C2:C113)</f>
+        <v>1.6859003200472844</v>
       </c>
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -2672,21 +2653,21 @@
       </c>
       <c r="D7" s="22">
         <f t="shared" si="1"/>
-        <v>0.3260778664537502</v>
+        <v>0.3449072318012264</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="22">
-        <f>SUM(D2:D87)</f>
-        <v>85.299827717802486</v>
+        <f>SUM(D2:D113)</f>
+        <v>115.92275535188293</v>
       </c>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="26" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -2697,7 +2678,7 @@
       </c>
       <c r="D8" s="22">
         <f t="shared" si="1"/>
-        <v>1.4912048585539203E-2</v>
+        <v>1.1206159465276635E-2</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" t="s">
@@ -2705,13 +2686,13 @@
       </c>
       <c r="G8" s="22">
         <f>G7/COUNT(D2:D87)</f>
-        <v>1.0277087676843673</v>
+        <v>1.3966597030347341</v>
       </c>
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="26" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -2722,7 +2703,7 @@
       </c>
       <c r="D9" s="22">
         <f t="shared" si="1"/>
-        <v>0.53034908595970343</v>
+        <v>0.5069368127430216</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="7" t="s">
@@ -2730,13 +2711,13 @@
       </c>
       <c r="G9" s="23">
         <f>SQRT(G8)</f>
-        <v>1.0137597189099432</v>
+        <v>1.1818035805643567</v>
       </c>
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="26" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -2747,7 +2728,7 @@
       </c>
       <c r="D10" s="22">
         <f t="shared" si="1"/>
-        <v>1.4912048585539203E-2</v>
+        <v>1.1206159465276635E-2</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="7"/>
@@ -2756,7 +2737,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="26" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -2767,7 +2748,7 @@
       </c>
       <c r="D11" s="22">
         <f t="shared" si="1"/>
-        <v>0.53034908595970343</v>
+        <v>0.5069368127430216</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="7"/>
@@ -2776,7 +2757,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="26" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -2787,7 +2768,7 @@
       </c>
       <c r="D12" s="22">
         <f t="shared" si="1"/>
-        <v>0.66465225855373111</v>
+        <v>0.63841111496572966</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="7"/>
@@ -2796,7 +2777,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="26" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B13">
         <v>25</v>
@@ -2807,7 +2788,7 @@
       </c>
       <c r="D13" s="22">
         <f t="shared" si="1"/>
-        <v>2.400117480706049</v>
+        <v>2.3500138983809427</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="7"/>
@@ -2815,8 +2796,8 @@
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="67" t="s">
-        <v>123</v>
+      <c r="A14" s="66" t="s">
+        <v>116</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -2827,7 +2808,7 @@
       </c>
       <c r="D14" s="22">
         <f t="shared" si="1"/>
-        <v>8.0287340937229681E-2</v>
+        <v>8.9763730624803195E-2</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="7"/>
@@ -2836,7 +2817,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="26" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -2847,7 +2828,7 @@
       </c>
       <c r="D15" s="22">
         <f t="shared" si="1"/>
-        <v>1.4912048585539203E-2</v>
+        <v>1.1206159465276635E-2</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="7"/>
@@ -2855,8 +2836,8 @@
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="67" t="s">
-        <v>125</v>
+      <c r="A16" s="66" t="s">
+        <v>118</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2867,7 +2848,7 @@
       </c>
       <c r="D16" s="22">
         <f t="shared" si="1"/>
-        <v>8.0287340937229681E-2</v>
+        <v>8.9763730624803195E-2</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="7"/>
@@ -2876,7 +2857,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -2887,7 +2868,7 @@
       </c>
       <c r="D17" s="22">
         <f t="shared" si="1"/>
-        <v>3.6248416290322631E-3</v>
+        <v>5.8464997780047177E-3</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="7"/>
@@ -2895,8 +2876,8 @@
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="67" t="s">
-        <v>127</v>
+      <c r="A18" s="66" t="s">
+        <v>120</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -2907,7 +2888,7 @@
       </c>
       <c r="D18" s="22">
         <f t="shared" si="1"/>
-        <v>3.6248416290322631E-3</v>
+        <v>5.8464997780047177E-3</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="7"/>
@@ -2916,7 +2897,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="26" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2927,7 +2908,7 @@
       </c>
       <c r="D19" s="22">
         <f t="shared" si="1"/>
-        <v>2.7877129905124849</v>
+        <v>2.8422598891355362</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="7"/>
@@ -2936,7 +2917,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -2946,7 +2927,7 @@
       <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="66" t="s">
         <v>33</v>
       </c>
       <c r="B21">
@@ -2958,7 +2939,7 @@
       </c>
       <c r="D21" s="22">
         <f t="shared" si="1"/>
-        <v>4.1776396113163061</v>
+        <v>4.1114527121911451</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="7"/>
@@ -2966,8 +2947,8 @@
       <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="67" t="s">
-        <v>111</v>
+      <c r="A22" s="66" t="s">
+        <v>104</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2978,7 +2959,7 @@
       </c>
       <c r="D22" s="22">
         <f t="shared" si="1"/>
-        <v>2.7877129905124849</v>
+        <v>2.8422598891355362</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="7"/>
@@ -2987,7 +2968,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2998,7 +2979,7 @@
       </c>
       <c r="D23" s="22">
         <f t="shared" si="1"/>
-        <v>0.95354715180665583</v>
+        <v>0.98555879596196816</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="7"/>
@@ -3007,7 +2988,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="26" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -3018,19 +2999,19 @@
       </c>
       <c r="D24" s="22">
         <f t="shared" si="1"/>
-        <v>0.3260778664537502</v>
+        <v>0.3449072318012264</v>
       </c>
       <c r="E24" s="22"/>
-      <c r="G24" s="65" t="s">
+      <c r="G24" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="23" t="s">
         <v>44</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="26" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -3041,24 +3022,24 @@
       </c>
       <c r="D25" s="22">
         <f t="shared" si="1"/>
-        <v>8.0287340937229681E-2</v>
+        <v>8.9763730624803195E-2</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="22">
         <f>G6-2*G9</f>
-        <v>-0.35787486770549082</v>
-      </c>
-      <c r="H25" s="68">
+        <v>-0.67770684108142909</v>
+      </c>
+      <c r="H25" s="67">
         <f>EXP(G25)</f>
-        <v>0.69916055709773406</v>
+        <v>0.50778007870115249</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="26" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B26">
         <v>12</v>
@@ -3069,24 +3050,24 @@
       </c>
       <c r="D26" s="22">
         <f t="shared" si="1"/>
-        <v>0.66465225855373111</v>
+        <v>0.63841111496572966</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" s="22">
         <f>G6-G9</f>
-        <v>0.65588485120445239</v>
-      </c>
-      <c r="H26" s="68">
+        <v>0.50409673948292766</v>
+      </c>
+      <c r="H26" s="67">
         <f>EXP(G26)</f>
-        <v>1.926846735930331</v>
+        <v>1.6554895066096942</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="26" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -3097,24 +3078,24 @@
       </c>
       <c r="D27" s="22">
         <f t="shared" si="1"/>
-        <v>2.5231796543478957</v>
+        <v>2.4718009478123713</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="22">
         <f>G6</f>
-        <v>1.6696445701143956</v>
-      </c>
-      <c r="H27" s="68">
+        <v>1.6859003200472844</v>
+      </c>
+      <c r="H27" s="67">
         <f>EXP(G27)</f>
-        <v>5.3102800294931036</v>
+        <v>5.3973080501800883</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="67" t="s">
-        <v>123</v>
+      <c r="A28" s="66" t="s">
+        <v>116</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -3125,24 +3106,24 @@
       </c>
       <c r="D28" s="22">
         <f t="shared" si="1"/>
-        <v>8.0287340937229681E-2</v>
+        <v>8.9763730624803195E-2</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" s="22">
         <f>G6+G9</f>
-        <v>2.683404289024339</v>
-      </c>
-      <c r="H28" s="68">
+        <v>2.8677039006116409</v>
+      </c>
+      <c r="H28" s="67">
         <f>EXP(G28)</f>
-        <v>14.634829779555899</v>
+        <v>17.596568309391781</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="26" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -3153,24 +3134,24 @@
       </c>
       <c r="D29" s="22">
         <f t="shared" si="1"/>
-        <v>1.4912048585539203E-2</v>
+        <v>1.1206159465276635E-2</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" s="22">
         <f>G6+2*G9</f>
-        <v>3.697164007934282</v>
-      </c>
-      <c r="H29" s="68">
+        <v>4.0495074811759979</v>
+      </c>
+      <c r="H29" s="67">
         <f>EXP(G29)</f>
-        <v>40.332758627989072</v>
+        <v>57.369194677846799</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="67" t="s">
-        <v>125</v>
+      <c r="A30" s="66" t="s">
+        <v>118</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -3181,13 +3162,13 @@
       </c>
       <c r="D30" s="22">
         <f t="shared" si="1"/>
-        <v>8.0287340937229681E-2</v>
+        <v>8.9763730624803195E-2</v>
       </c>
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -3198,13 +3179,13 @@
       </c>
       <c r="D31" s="22">
         <f t="shared" si="1"/>
-        <v>3.6248416290322631E-3</v>
+        <v>5.8464997780047177E-3</v>
       </c>
       <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="67" t="s">
-        <v>137</v>
+      <c r="A32" s="66" t="s">
+        <v>130</v>
       </c>
       <c r="B32">
         <v>10</v>
@@ -3215,13 +3196,13 @@
       </c>
       <c r="D32" s="22">
         <f t="shared" si="1"/>
-        <v>0.40061370550316511</v>
+        <v>0.38030010918439877</v>
       </c>
       <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="26" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B33">
         <v>16</v>
@@ -3232,13 +3213,13 @@
       </c>
       <c r="D33" s="22">
         <f t="shared" si="1"/>
-        <v>1.2164858027075856</v>
+        <v>1.1808916834596817</v>
       </c>
       <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="67" t="s">
-        <v>139</v>
+      <c r="A34" s="66" t="s">
+        <v>132</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -3249,13 +3230,13 @@
       </c>
       <c r="D34" s="22">
         <f t="shared" si="1"/>
-        <v>0.95354715180665583</v>
+        <v>0.98555879596196816</v>
       </c>
       <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -3266,13 +3247,13 @@
       </c>
       <c r="D35" s="22">
         <f t="shared" si="1"/>
-        <v>1.4912048585539203E-2</v>
+        <v>1.1206159465276635E-2</v>
       </c>
       <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -3283,13 +3264,13 @@
       </c>
       <c r="D36" s="22">
         <f t="shared" si="1"/>
-        <v>1.4912048585539203E-2</v>
+        <v>1.1206159465276635E-2</v>
       </c>
       <c r="E36" s="22"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="26" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -3300,13 +3281,13 @@
       </c>
       <c r="D37" s="22">
         <f t="shared" si="1"/>
-        <v>0.95354715180665583</v>
+        <v>0.98555879596196816</v>
       </c>
       <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
@@ -3325,13 +3306,13 @@
       </c>
       <c r="D39" s="22">
         <f t="shared" si="1"/>
-        <v>4.6612672962960247</v>
+        <v>4.5913393206710094</v>
       </c>
       <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3342,13 +3323,13 @@
       </c>
       <c r="D40" s="22">
         <f t="shared" si="1"/>
-        <v>2.7877129905124849</v>
+        <v>2.8422598891355362</v>
       </c>
       <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -3359,13 +3340,13 @@
       </c>
       <c r="D41" s="22">
         <f t="shared" si="1"/>
-        <v>0.95354715180665583</v>
+        <v>0.98555879596196816</v>
       </c>
       <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -3376,13 +3357,13 @@
       </c>
       <c r="D42" s="22">
         <f t="shared" si="1"/>
-        <v>0.95354715180665583</v>
+        <v>0.98555879596196816</v>
       </c>
       <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="26" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -3393,13 +3374,13 @@
       </c>
       <c r="D43" s="22">
         <f t="shared" si="1"/>
-        <v>0.3260778664537502</v>
+        <v>0.3449072318012264</v>
       </c>
       <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="26" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -3410,13 +3391,13 @@
       </c>
       <c r="D44" s="22">
         <f t="shared" si="1"/>
-        <v>8.0287340937229681E-2</v>
+        <v>8.9763730624803195E-2</v>
       </c>
       <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="26" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -3427,13 +3408,13 @@
       </c>
       <c r="D45" s="22">
         <f t="shared" si="1"/>
-        <v>8.0287340937229681E-2</v>
+        <v>8.9763730624803195E-2</v>
       </c>
       <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -3444,13 +3425,13 @@
       </c>
       <c r="D46" s="22">
         <f t="shared" si="1"/>
-        <v>0.95354715180665583</v>
+        <v>0.98555879596196816</v>
       </c>
       <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="26" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -3461,13 +3442,13 @@
       </c>
       <c r="D47" s="22">
         <f t="shared" si="1"/>
-        <v>1.4912048585539203E-2</v>
+        <v>1.1206159465276635E-2</v>
       </c>
       <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -3478,13 +3459,13 @@
       </c>
       <c r="D48" s="22">
         <f t="shared" si="1"/>
-        <v>1.4912048585539203E-2</v>
+        <v>1.1206159465276635E-2</v>
       </c>
       <c r="E48" s="22"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="26" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B49">
         <v>14</v>
@@ -3495,13 +3476,13 @@
       </c>
       <c r="D49" s="22">
         <f t="shared" si="1"/>
-        <v>0.93976109828307763</v>
+        <v>0.90850828488856283</v>
       </c>
       <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="26" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3512,13 +3493,13 @@
       </c>
       <c r="D50" s="22">
         <f t="shared" si="1"/>
-        <v>1.4912048585539203E-2</v>
+        <v>1.1206159465276635E-2</v>
       </c>
       <c r="E50" s="22"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="26" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B51">
         <v>11</v>
@@ -3529,13 +3510,13 @@
       </c>
       <c r="D51" s="22">
         <f t="shared" si="1"/>
-        <v>0.53034908595970343</v>
+        <v>0.5069368127430216</v>
       </c>
       <c r="E51" s="22"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="26" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B52">
         <v>12</v>
@@ -3546,13 +3527,13 @@
       </c>
       <c r="D52" s="22">
         <f t="shared" si="1"/>
-        <v>0.66465225855373111</v>
+        <v>0.63841111496572966</v>
       </c>
       <c r="E52" s="22"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="26" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B53">
         <v>25</v>
@@ -3563,13 +3544,13 @@
       </c>
       <c r="D53" s="22">
         <f t="shared" si="1"/>
-        <v>2.400117480706049</v>
+        <v>2.3500138983809427</v>
       </c>
       <c r="E53" s="22"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="26" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B54">
         <v>66</v>
@@ -3580,13 +3561,13 @@
       </c>
       <c r="D54" s="22">
         <f t="shared" si="1"/>
-        <v>6.3504512665400972</v>
+        <v>6.2687862055801009</v>
       </c>
       <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="67" t="s">
-        <v>127</v>
+      <c r="A55" s="66" t="s">
+        <v>120</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -3597,13 +3578,13 @@
       </c>
       <c r="D55" s="22">
         <f>(C55-$G$6)^2</f>
-        <v>3.6248416290322631E-3</v>
+        <v>5.8464997780047177E-3</v>
       </c>
       <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="26" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3614,13 +3595,13 @@
       </c>
       <c r="D56" s="22">
         <f>(C56-$G$6)^2</f>
-        <v>2.7877129905124849</v>
+        <v>2.8422598891355362</v>
       </c>
       <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="67" t="s">
-        <v>143</v>
+      <c r="A57" s="66" t="s">
+        <v>136</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -3631,13 +3612,13 @@
       </c>
       <c r="D57" s="22">
         <f>(C57-$G$6)^2</f>
-        <v>0.16793355790420617</v>
+        <v>0.1548746931240409</v>
       </c>
       <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="26" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3648,13 +3629,13 @@
       </c>
       <c r="D58" s="22">
         <f>(C58-$G$6)^2</f>
-        <v>2.7877129905124849</v>
+        <v>2.8422598891355362</v>
       </c>
       <c r="E58" s="22"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="67" t="s">
-        <v>123</v>
+      <c r="A59" s="66" t="s">
+        <v>116</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -3665,13 +3646,13 @@
       </c>
       <c r="D59" s="22">
         <f t="shared" ref="D59:D62" si="3">(C59-$G$6)^2</f>
-        <v>8.0287340937229681E-2</v>
+        <v>8.9763730624803195E-2</v>
       </c>
       <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="26" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -3682,13 +3663,13 @@
       </c>
       <c r="D60" s="22">
         <f t="shared" si="3"/>
-        <v>1.4912048585539203E-2</v>
+        <v>1.1206159465276635E-2</v>
       </c>
       <c r="E60" s="22"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="67" t="s">
-        <v>125</v>
+      <c r="A61" s="66" t="s">
+        <v>118</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -3699,13 +3680,13 @@
       </c>
       <c r="D61" s="22">
         <f t="shared" si="3"/>
-        <v>8.0287340937229681E-2</v>
+        <v>8.9763730624803195E-2</v>
       </c>
       <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -3716,13 +3697,13 @@
       </c>
       <c r="D62" s="22">
         <f t="shared" si="3"/>
-        <v>3.6248416290322631E-3</v>
+        <v>5.8464997780047177E-3</v>
       </c>
       <c r="E62" s="22"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
@@ -3741,13 +3722,13 @@
       </c>
       <c r="D64" s="22">
         <f t="shared" si="1"/>
-        <v>4.6612672962960247</v>
+        <v>4.5913393206710094</v>
       </c>
       <c r="E64" s="22"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3758,13 +3739,13 @@
       </c>
       <c r="D65" s="22">
         <f t="shared" si="1"/>
-        <v>2.7877129905124849</v>
+        <v>2.8422598891355362</v>
       </c>
       <c r="E65" s="22"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -3775,13 +3756,13 @@
       </c>
       <c r="D66" s="22">
         <f t="shared" si="1"/>
-        <v>0.95354715180665583</v>
+        <v>0.98555879596196816</v>
       </c>
       <c r="E66" s="22"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -3792,13 +3773,13 @@
       </c>
       <c r="D67" s="22">
         <f t="shared" si="1"/>
-        <v>3.6248416290322631E-3</v>
+        <v>5.8464997780047177E-3</v>
       </c>
       <c r="E67" s="22"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="26" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -3809,13 +3790,13 @@
       </c>
       <c r="D68" s="22">
         <f t="shared" si="1"/>
-        <v>0.3260778664537502</v>
+        <v>0.3449072318012264</v>
       </c>
       <c r="E68" s="22"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="26" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -3826,13 +3807,13 @@
       </c>
       <c r="D69" s="22">
         <f t="shared" si="1"/>
-        <v>8.0287340937229681E-2</v>
+        <v>8.9763730624803195E-2</v>
       </c>
       <c r="E69" s="22"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="26" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -3843,13 +3824,13 @@
       </c>
       <c r="D70" s="22">
         <f t="shared" si="1"/>
-        <v>8.0287340937229681E-2</v>
+        <v>8.9763730624803195E-2</v>
       </c>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -3860,13 +3841,13 @@
       </c>
       <c r="D71" s="22">
         <f t="shared" si="1"/>
-        <v>0.95354715180665583</v>
+        <v>0.98555879596196816</v>
       </c>
       <c r="E71" s="22"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="26" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -3877,13 +3858,13 @@
       </c>
       <c r="D72" s="22">
         <f t="shared" si="1"/>
-        <v>1.4912048585539203E-2</v>
+        <v>1.1206159465276635E-2</v>
       </c>
       <c r="E72" s="22"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -3894,13 +3875,13 @@
       </c>
       <c r="D73" s="22">
         <f t="shared" si="1"/>
-        <v>1.4912048585539203E-2</v>
+        <v>1.1206159465276635E-2</v>
       </c>
       <c r="E73" s="22"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="26" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B74">
         <v>14</v>
@@ -3911,13 +3892,13 @@
       </c>
       <c r="D74" s="22">
         <f t="shared" si="1"/>
-        <v>0.93976109828307763</v>
+        <v>0.90850828488856283</v>
       </c>
       <c r="E74" s="22"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="26" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -3928,13 +3909,13 @@
       </c>
       <c r="D75" s="22">
         <f t="shared" si="1"/>
-        <v>1.4912048585539203E-2</v>
+        <v>1.1206159465276635E-2</v>
       </c>
       <c r="E75" s="22"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="26" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B76">
         <v>11</v>
@@ -3945,13 +3926,13 @@
       </c>
       <c r="D76" s="22">
         <f t="shared" si="1"/>
-        <v>0.53034908595970343</v>
+        <v>0.5069368127430216</v>
       </c>
       <c r="E76" s="22"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="26" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B77">
         <v>12</v>
@@ -3962,13 +3943,13 @@
       </c>
       <c r="D77" s="22">
         <f t="shared" si="1"/>
-        <v>0.66465225855373111</v>
+        <v>0.63841111496572966</v>
       </c>
       <c r="E77" s="22"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="26" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B78">
         <v>25</v>
@@ -3979,13 +3960,13 @@
       </c>
       <c r="D78" s="22">
         <f t="shared" si="1"/>
-        <v>2.400117480706049</v>
+        <v>2.3500138983809427</v>
       </c>
       <c r="E78" s="22"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="26" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B79">
         <v>66</v>
@@ -3996,13 +3977,13 @@
       </c>
       <c r="D79" s="22">
         <f t="shared" si="1"/>
-        <v>6.3504512665400972</v>
+        <v>6.2687862055801009</v>
       </c>
       <c r="E79" s="22"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="67" t="s">
-        <v>127</v>
+      <c r="A80" s="66" t="s">
+        <v>120</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -4013,13 +3994,13 @@
       </c>
       <c r="D80" s="22">
         <f t="shared" si="1"/>
-        <v>3.6248416290322631E-3</v>
+        <v>5.8464997780047177E-3</v>
       </c>
       <c r="E80" s="22"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="26" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4030,13 +4011,13 @@
       </c>
       <c r="D81" s="22">
         <f t="shared" si="1"/>
-        <v>2.7877129905124849</v>
+        <v>2.8422598891355362</v>
       </c>
       <c r="E81" s="22"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="67" t="s">
-        <v>143</v>
+      <c r="A82" s="66" t="s">
+        <v>136</v>
       </c>
       <c r="B82">
         <v>8</v>
@@ -4047,13 +4028,13 @@
       </c>
       <c r="D82" s="22">
         <f t="shared" si="1"/>
-        <v>0.16793355790420617</v>
+        <v>0.1548746931240409</v>
       </c>
       <c r="E82" s="22"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="26" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -4064,13 +4045,13 @@
       </c>
       <c r="D83" s="22">
         <f t="shared" si="1"/>
-        <v>2.7877129905124849</v>
+        <v>2.8422598891355362</v>
       </c>
       <c r="E83" s="22"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="67" t="s">
-        <v>123</v>
+      <c r="A84" s="66" t="s">
+        <v>116</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -4081,13 +4062,13 @@
       </c>
       <c r="D84" s="22">
         <f t="shared" si="1"/>
-        <v>8.0287340937229681E-2</v>
+        <v>8.9763730624803195E-2</v>
       </c>
       <c r="E84" s="22"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="26" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -4098,13 +4079,13 @@
       </c>
       <c r="D85" s="22">
         <f t="shared" si="1"/>
-        <v>1.4912048585539203E-2</v>
+        <v>1.1206159465276635E-2</v>
       </c>
       <c r="E85" s="22"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="67" t="s">
-        <v>125</v>
+      <c r="A86" s="66" t="s">
+        <v>118</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -4115,13 +4096,13 @@
       </c>
       <c r="D86" s="22">
         <f t="shared" si="1"/>
-        <v>8.0287340937229681E-2</v>
+        <v>8.9763730624803195E-2</v>
       </c>
       <c r="E86" s="22"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4132,24 +4113,423 @@
       </c>
       <c r="D87" s="22">
         <f t="shared" si="1"/>
-        <v>3.6248416290322631E-3</v>
+        <v>5.8464997780047177E-3</v>
       </c>
       <c r="E87" s="22"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="26" t="s">
-        <v>147</v>
+      <c r="A89" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89">
+        <f>46+28-4-6</f>
+        <v>64</v>
+      </c>
+      <c r="C89" s="22">
+        <f t="shared" ref="C88:C113" si="4">LN(B89)</f>
+        <v>4.1588830833596715</v>
+      </c>
+      <c r="D89" s="22">
+        <f t="shared" ref="D88:D113" si="5">(C89-$G$6)^2</f>
+        <v>6.1156437476401697</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" s="22">
+        <f t="shared" si="4"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="D90" s="22">
+        <f t="shared" si="5"/>
+        <v>8.9763730624803195E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D91" s="22">
+        <f t="shared" si="5"/>
+        <v>2.8422598891355362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" s="22">
+        <f t="shared" si="4"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="D92" s="22">
+        <f t="shared" si="5"/>
+        <v>0.98555879596196816</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93" s="22">
+        <f t="shared" si="4"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="D93" s="22">
+        <f t="shared" si="5"/>
+        <v>5.8464997780047177E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" s="22">
+        <f t="shared" si="4"/>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="D94" s="22">
+        <f t="shared" si="5"/>
+        <v>0.3449072318012264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" s="22">
+        <f t="shared" si="4"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="D95" s="22">
+        <f t="shared" si="5"/>
+        <v>8.9763730624803195E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" s="22">
+        <f t="shared" si="4"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="D96" s="22">
+        <f t="shared" si="5"/>
+        <v>8.9763730624803195E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" s="22">
+        <f t="shared" si="4"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="D97" s="22">
+        <f t="shared" si="5"/>
+        <v>0.98555879596196816</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98" s="22">
+        <f t="shared" si="4"/>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="D98" s="22">
+        <f t="shared" si="5"/>
+        <v>1.1206159465276635E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99">
+        <v>6</v>
+      </c>
+      <c r="C99" s="22">
+        <f t="shared" si="4"/>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="D99" s="22">
+        <f t="shared" si="5"/>
+        <v>1.1206159465276635E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100">
+        <v>14</v>
+      </c>
+      <c r="C100" s="22">
+        <f t="shared" si="4"/>
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="D100" s="22">
+        <f t="shared" si="5"/>
+        <v>0.90850828488856283</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101" s="22">
+        <f t="shared" si="4"/>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="D101" s="22">
+        <f t="shared" si="5"/>
+        <v>1.1206159465276635E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102">
+        <v>11</v>
+      </c>
+      <c r="C102" s="22">
+        <f t="shared" si="4"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="D102" s="22">
+        <f t="shared" si="5"/>
+        <v>0.5069368127430216</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103">
+        <f>12+18</f>
+        <v>30</v>
+      </c>
+      <c r="C103" s="22">
+        <f t="shared" si="4"/>
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="D103" s="22">
+        <f t="shared" si="5"/>
+        <v>2.942244009584611</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104">
+        <v>25</v>
+      </c>
+      <c r="C104" s="22">
+        <f t="shared" si="4"/>
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="D104" s="22">
+        <f t="shared" si="5"/>
+        <v>2.3500138983809427</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105">
+        <v>66</v>
+      </c>
+      <c r="C105" s="22">
+        <f t="shared" si="4"/>
+        <v>4.1896547420264252</v>
+      </c>
+      <c r="D105" s="22">
+        <f t="shared" si="5"/>
+        <v>6.2687862055801009</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106" s="22">
+        <f t="shared" si="4"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="D106" s="22">
+        <f t="shared" si="5"/>
+        <v>5.8464997780047177E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D107" s="22">
+        <f t="shared" si="5"/>
+        <v>2.8422598891355362</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108" s="22">
+        <f t="shared" si="4"/>
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="D108" s="22">
+        <f t="shared" si="5"/>
+        <v>0.1548746931240409</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D109" s="22">
+        <f t="shared" si="5"/>
+        <v>2.8422598891355362</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110" s="22">
+        <f t="shared" si="4"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="D110" s="22">
+        <f t="shared" si="5"/>
+        <v>8.9763730624803195E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="C111" s="22">
+        <f t="shared" si="4"/>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="D111" s="22">
+        <f t="shared" si="5"/>
+        <v>1.1206159465276635E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112" s="22">
+        <f t="shared" si="4"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="D112" s="22">
+        <f t="shared" si="5"/>
+        <v>8.9763730624803195E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113" s="22">
+        <f t="shared" si="4"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="D113" s="22">
+        <f t="shared" si="5"/>
+        <v>5.8464997780047177E-3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4159,7 +4539,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4211,7 +4591,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B4" s="5">
         <v>200</v>
@@ -4229,11 +4609,11 @@
       </c>
       <c r="F4" s="22">
         <f t="shared" ref="F4:F9" si="2">(C4-C$20-(B$20*B4))^2</f>
-        <v>92.776600431210198</v>
+        <v>87.289225959130746</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G9" si="3">(B4-B$15)^2</f>
-        <v>13514.0625</v>
+        <v>15376</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H9" si="4">C4^2</f>
@@ -4242,7 +4622,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B5" s="5">
         <v>60</v>
@@ -4260,11 +4640,11 @@
       </c>
       <c r="F5" s="22">
         <f t="shared" si="2"/>
-        <v>649.43269972612279</v>
+        <v>802.847512153715</v>
       </c>
       <c r="G5">
         <f t="shared" si="3"/>
-        <v>564.0625</v>
+        <v>256</v>
       </c>
       <c r="H5">
         <f t="shared" si="4"/>
@@ -4273,7 +4653,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B6" s="5">
         <v>70</v>
@@ -4291,11 +4671,11 @@
       </c>
       <c r="F6" s="22">
         <f t="shared" si="2"/>
-        <v>53.770314084260811</v>
+        <v>100.00922956228294</v>
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>189.0625</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
@@ -4304,7 +4684,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
@@ -4322,11 +4702,11 @@
       </c>
       <c r="F7" s="22">
         <f t="shared" si="2"/>
-        <v>537.53183614008526</v>
+        <v>373.56666059398003</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>6201.5625</v>
+        <v>5041</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
@@ -4334,30 +4714,34 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5">
+        <v>43</v>
+      </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1935</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2025</v>
       </c>
       <c r="F8" s="22">
         <f t="shared" si="2"/>
-        <v>557.39245032340784</v>
+        <v>93.398354656594506</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>7014.0625</v>
+        <v>961</v>
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4376,11 +4760,11 @@
       </c>
       <c r="F9" s="22">
         <f t="shared" si="2"/>
-        <v>557.39245032340784</v>
+        <v>386.54789859811513</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>7014.0625</v>
+        <v>5776</v>
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
@@ -4420,32 +4804,32 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <f>SUM(B4:B7)</f>
-        <v>335</v>
+        <f>SUM(B4:B8)</f>
+        <v>380</v>
       </c>
       <c r="C14">
-        <f>SUM(C4:C7)</f>
-        <v>334</v>
+        <f>SUM(C4:C8)</f>
+        <v>377</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="C14:H14" si="5">SUM(D4:D9)</f>
-        <v>42610</v>
+        <f t="shared" ref="D14:H14" si="5">SUM(D4:D9)</f>
+        <v>44545</v>
       </c>
       <c r="E14">
         <f t="shared" si="5"/>
-        <v>48525</v>
+        <v>50550</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" si="5"/>
-        <v>2448.2963510284949</v>
+        <v>1843.6588815238185</v>
       </c>
       <c r="G14" s="18">
         <f t="shared" si="5"/>
-        <v>34496.875</v>
+        <v>27446</v>
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
-        <v>39690</v>
+        <v>41539</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4453,12 +4837,12 @@
         <v>4</v>
       </c>
       <c r="B15" s="11">
-        <f>AVERAGE(B4:B7)</f>
-        <v>83.75</v>
+        <f>AVERAGE(B4:B8)</f>
+        <v>76</v>
       </c>
       <c r="C15" s="11">
-        <f>AVERAGE(C4:C7)</f>
-        <v>83.5</v>
+        <f>AVERAGE(C4:C8)</f>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4467,7 +4851,7 @@
       </c>
       <c r="B16" s="6">
         <f>COUNTA(B4:B13)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4492,23 +4876,23 @@
     <row r="20" spans="1:6">
       <c r="B20" s="20">
         <f>IF(D20&lt;0.5,YSum/XSum,(D14-B16*B15*C15)/(E14-B16*B15*B15))</f>
-        <v>0.71511450381679387</v>
+        <v>0.73341024457775705</v>
       </c>
       <c r="C20" s="20">
         <f>IF(D20&lt;0.5,0,C15-B20*B15)</f>
-        <v>23.609160305343515</v>
+        <v>19.660821412090471</v>
       </c>
       <c r="D20" s="20">
         <f>((n*XiYiSum-(XSum * YSum))/SQRT((n*Xi2Sum-(XSum)^2)*(n*Yi2Sum-(YSum)^2)))^2</f>
-        <v>0.88700013131245836</v>
-      </c>
-      <c r="F20" s="67" t="s">
-        <v>88</v>
+        <v>0.88888212008314493</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4520,9 +4904,9 @@
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="71">
+      <c r="B23" s="70">
         <f>'C39'!G33</f>
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4531,10 +4915,10 @@
       </c>
       <c r="B24" s="9">
         <f>B23*B20+C20</f>
-        <v>27.184732824427485</v>
+        <v>52.664282418089535</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4543,7 +4927,7 @@
       </c>
       <c r="B25" s="12">
         <f>(1/(B16-2))*F14</f>
-        <v>1224.1481755142474</v>
+        <v>614.55296050793947</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4552,7 +4936,7 @@
       </c>
       <c r="B26" s="13">
         <f>SQRT(B25)</f>
-        <v>34.987828962572792</v>
+        <v>24.790178710689833</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4561,7 +4945,7 @@
       </c>
       <c r="B27" s="17">
         <f>TINV(1-pi_pct,n-2)</f>
-        <v>1.3862065588147332</v>
+        <v>1.2497781048019201</v>
       </c>
       <c r="D27" s="16"/>
     </row>
@@ -4571,10 +4955,10 @@
       </c>
       <c r="B28" s="12">
         <f>SQRT((1+(1/B16)+((B23-B15)^2/G14))) * B26*B27</f>
-        <v>57.993363183289432</v>
+        <v>34.430913611549435</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="38.25">
@@ -4583,10 +4967,10 @@
       </c>
       <c r="B29" s="9">
         <f>B24+B28</f>
-        <v>85.178096007716917</v>
+        <v>87.09519602963897</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="38.25">
@@ -4595,10 +4979,10 @@
       </c>
       <c r="B30" s="9">
         <f>B24-B28</f>
-        <v>-30.808630358861947</v>
+        <v>18.233368806540099</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="32.25" customHeight="1">
@@ -4625,7 +5009,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C13"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4676,123 +5060,158 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="5">
+        <v>200</v>
+      </c>
+      <c r="C4" s="5">
+        <v>186</v>
+      </c>
       <c r="D4">
         <f t="shared" ref="D4:D13" si="0">B4*C4</f>
-        <v>0</v>
+        <v>37200</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E13" si="1">B4^2</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="22" t="e">
+        <v>40000</v>
+      </c>
+      <c r="F4" s="22">
         <f>(C4-C20-(B20*B4))^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" t="e">
+        <v>350962.70360110805</v>
+      </c>
+      <c r="G4">
         <f>(B4-B15)^2</f>
-        <v>#DIV/0!</v>
+        <v>15376</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H13" si="2">C4^2</f>
-        <v>0</v>
+        <v>34596</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="5">
+        <v>60</v>
+      </c>
+      <c r="C5" s="5">
+        <v>406</v>
+      </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24360</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="22" t="e">
+        <v>3600</v>
+      </c>
+      <c r="F5" s="22">
         <f>(C5-C20-(B20*B5))^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" t="e">
+        <v>29747.171745152351</v>
+      </c>
+      <c r="G5">
         <f>(B5-B15)^2</f>
-        <v>#DIV/0!</v>
+        <v>256</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>164836</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="5">
+        <v>70</v>
+      </c>
+      <c r="C6" s="5">
+        <v>560</v>
+      </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39200</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="22" t="e">
+        <v>4900</v>
+      </c>
+      <c r="F6" s="22">
         <f>(C6-C20-(B20*B6))^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" t="e">
+        <v>82686.515927977831</v>
+      </c>
+      <c r="G6">
         <f>(B6-B15)^2</f>
-        <v>#DIV/0!</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>313600</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>132</v>
+      </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F7" s="22">
         <f>IF(B7&gt;0, (C7-C20-(B20*B7))^2,0)</f>
-        <v>0</v>
+        <v>12665.133137119112</v>
       </c>
       <c r="G7">
         <f>IF(B7&gt;0, (B7-B15)^2, 0)</f>
-        <v>0</v>
+        <v>5041</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17424</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5">
+        <v>195</v>
+      </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8775</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2025</v>
       </c>
       <c r="F8" s="22">
         <f>IF(B8&gt;0, (C8-C20-(B20*B8))^2, 0)</f>
-        <v>0</v>
+        <v>394.23147506925221</v>
       </c>
       <c r="G8">
         <f>IF(B8&gt;0, (B8-B15)^2, 0)</f>
-        <v>0</v>
+        <v>961</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>38025</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4921,44 +5340,44 @@
       </c>
       <c r="B14">
         <f t="shared" ref="B14:H14" si="3">SUM(B4:B13)</f>
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1479</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>110195</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="21" t="e">
+        <v>50550</v>
+      </c>
+      <c r="F14" s="21">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="21" t="e">
+        <v>476455.7558864266</v>
+      </c>
+      <c r="G14" s="21">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>21670</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>568481</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="e">
+      <c r="B15" s="6">
         <f>AVERAGE(B4:B13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="6" t="e">
+        <v>76</v>
+      </c>
+      <c r="C15" s="6">
         <f>AVERAGE(C4:C13)</f>
-        <v>#DIV/0!</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4967,7 +5386,7 @@
       </c>
       <c r="B16" s="6">
         <f>COUNTA(B4:B13)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4990,25 +5409,25 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="B20" s="20" t="e">
+      <c r="B20" s="20">
         <f>IF(D20&lt;0.5,YSum/XSum,(D14-B16*B15*C15)/(E14-B16*B15*B15))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C20" s="20" t="e">
+        <v>3.892105263157895</v>
+      </c>
+      <c r="C20" s="20">
         <f>IF(D20&lt;0.5,0,C15-B20*B15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="D20" s="20">
         <f>((n*XiYiSum-(XSum * YSum))/SQRT((n*Xi2Sum-(XSum)^2)*(n*Yi2Sum-(YSum)^2)))^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="67" t="s">
-        <v>88</v>
+        <v>1.7190364879680281E-3</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5020,48 +5439,48 @@
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="71">
+      <c r="B23" s="70">
         <f>'C39'!G33</f>
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="e">
+      <c r="B24" s="98">
         <f>B23*B20+C20</f>
-        <v>#DIV/0!</v>
+        <v>175.14473684210526</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="72" t="e">
+      <c r="B25" s="71">
         <f>(1/(B16-2))*F14</f>
-        <v>#DIV/0!</v>
+        <v>158818.58529547552</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="72" t="e">
+      <c r="B26" s="71">
         <f>SQRT(B25)</f>
-        <v>#DIV/0!</v>
+        <v>398.52049545221075</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="73" t="e">
+      <c r="B27" s="72">
         <f>TINV(1-pi_pct,n-2)</f>
-        <v>#NUM!</v>
+        <v>1.2497781048019201</v>
       </c>
       <c r="D27" s="16"/>
     </row>
@@ -5069,36 +5488,36 @@
       <c r="A28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="72" t="e">
+      <c r="B28" s="71">
         <f>SQRT((1+(1/B16)+((B23-B15)^2/G14))) * B26*B27</f>
-        <v>#DIV/0!</v>
+        <v>555.58988458542001</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="38.25">
       <c r="A29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="9" t="e">
+      <c r="B29" s="9">
         <f>B24+B28</f>
-        <v>#DIV/0!</v>
+        <v>730.73462142752533</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="38.25">
       <c r="A30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="9" t="e">
+      <c r="B30" s="9">
         <f>B24-B28</f>
-        <v>#DIV/0!</v>
+        <v>-380.44514774331475</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="32.25" customHeight="1">
